--- a/data-raw/vzorek.xlsx
+++ b/data-raw/vzorek.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>lng</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -398,12 +398,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>výkonná</t>
+          <t>moc výkonná</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rezidence premiéra</t>
+          <t>hnízdiště &lt;i&gt;&lt;a href = "https://cs.wikipedia.org/wiki/%C4%8C%C3%A1p_b%C3%ADl%C3%BD"&gt;Ciconia ciconia L. 1758&lt;/a&gt;&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -421,12 +421,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>výkonná</t>
+          <t>moc výkonná</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>rezidence prezidenta</t>
+          <t>prezidence rezidenta</t>
         </is>
       </c>
     </row>
@@ -444,12 +444,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>výkonná</t>
+          <t>moc výkonná</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sídlo vlády</t>
+          <t>akademie &lt;i&gt;&lt;a href="https://cs.wikipedia.org/wiki/Straka_obecn%C3%A1"&gt;Pica pica L. 1758&lt;/a&gt;&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>legislativa</t>
+          <t>moc legislativní</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>legislativa</t>
+          <t>moc legislativní</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/data-raw/vzorek.xlsx
+++ b/data-raw/vzorek.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>hnízdiště &lt;i&gt;&lt;a href = "https://cs.wikipedia.org/wiki/%C4%8C%C3%A1p_b%C3%ADl%C3%BD"&gt;Ciconia ciconia L. 1758&lt;/a&gt;&lt;/i&gt;</t>
+          <t>hnízdiště &lt;i&gt;&lt;a href = "https://cs.wikipedia.org/wiki/%C4%8C%C3%A1p_b%C3%ADl%C3%BD"&gt;Ciconia ciconia L.&lt;/a&gt;&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>akademie &lt;i&gt;&lt;a href="https://cs.wikipedia.org/wiki/Straka_obecn%C3%A1"&gt;Pica pica L. 1758&lt;/a&gt;&lt;/i&gt;</t>
+          <t>zimoviště &lt;i&gt;&lt;a href="https://cs.wikipedia.org/wiki/Straka_obecn%C3%A1"&gt;Pica pica L.&lt;/a&gt;&lt;/i&gt;</t>
         </is>
       </c>
     </row>
